--- a/TestData/Credentials.xlsx
+++ b/TestData/Credentials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fiverr\Nifty IT Solution\BracuERP_Automation\BracuERP_Java_Cucumber\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllGitProject\JavaCucumberGithubActions\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F59E525-9A01-4A67-ACC7-5C621A10CD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B3D33-DDC7-4B49-80C3-F4263AEAE07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDF1B711-4B55-4A38-B398-A6A91E07FFB6}"/>
   </bookViews>
@@ -36,15 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>rasel.qups@gmail</t>
-  </si>
-  <si>
-    <t>apps@niftyitsolution.com</t>
-  </si>
-  <si>
-    <t>f@]+yN!ogbCFE"pi33</t>
   </si>
   <si>
     <t>abcdefghi</t>
@@ -438,7 +432,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -448,14 +442,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
